--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.8043254645127</v>
+        <v>83.148033</v>
       </c>
       <c r="H2">
-        <v>81.8043254645127</v>
+        <v>249.444099</v>
       </c>
       <c r="I2">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J2">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>88.37508156448138</v>
+        <v>130.88581318629</v>
       </c>
       <c r="R2">
-        <v>88.37508156448138</v>
+        <v>1177.97231867661</v>
       </c>
       <c r="S2">
-        <v>0.0018984056804223</v>
+        <v>0.00261524739324019</v>
       </c>
       <c r="T2">
-        <v>0.0018984056804223</v>
+        <v>0.002615247393240191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.8043254645127</v>
+        <v>83.148033</v>
       </c>
       <c r="H3">
-        <v>81.8043254645127</v>
+        <v>249.444099</v>
       </c>
       <c r="I3">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J3">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>5112.627389369281</v>
+        <v>5197.080247786251</v>
       </c>
       <c r="R3">
-        <v>5112.627389369281</v>
+        <v>46773.72223007626</v>
       </c>
       <c r="S3">
-        <v>0.1098255379914934</v>
+        <v>0.1038435735669691</v>
       </c>
       <c r="T3">
-        <v>0.1098255379914934</v>
+        <v>0.1038435735669691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.8043254645127</v>
+        <v>83.148033</v>
       </c>
       <c r="H4">
-        <v>81.8043254645127</v>
+        <v>249.444099</v>
       </c>
       <c r="I4">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J4">
-        <v>0.1324162872773468</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>963.275433037819</v>
+        <v>15.208024679799</v>
       </c>
       <c r="R4">
-        <v>963.275433037819</v>
+        <v>136.872222118191</v>
       </c>
       <c r="S4">
-        <v>0.02069234360543109</v>
+        <v>0.0003038736279505571</v>
       </c>
       <c r="T4">
-        <v>0.02069234360543109</v>
+        <v>0.0003038736279505572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>153.862994119121</v>
+        <v>83.148033</v>
       </c>
       <c r="H5">
-        <v>153.862994119121</v>
+        <v>249.444099</v>
       </c>
       <c r="I5">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J5">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>166.2217074442035</v>
+        <v>7.799922963653</v>
       </c>
       <c r="R5">
-        <v>166.2217074442035</v>
+        <v>70.19930667287699</v>
       </c>
       <c r="S5">
-        <v>0.003570647155684145</v>
+        <v>0.0001558513310310741</v>
       </c>
       <c r="T5">
-        <v>0.003570647155684145</v>
+        <v>0.0001558513310310741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.862994119121</v>
+        <v>83.148033</v>
       </c>
       <c r="H6">
-        <v>153.862994119121</v>
+        <v>249.444099</v>
       </c>
       <c r="I6">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="J6">
-        <v>0.2490573244744695</v>
+        <v>0.1291567785869119</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>9616.16825854807</v>
+        <v>1112.961310682878</v>
       </c>
       <c r="R6">
-        <v>9616.16825854807</v>
+        <v>10016.6517961459</v>
       </c>
       <c r="S6">
-        <v>0.206567146787916</v>
+        <v>0.022238232667721</v>
       </c>
       <c r="T6">
-        <v>0.206567146787916</v>
+        <v>0.022238232667721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>153.862994119121</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H7">
-        <v>153.862994119121</v>
+        <v>462.167831</v>
       </c>
       <c r="I7">
-        <v>0.2490573244744695</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J7">
-        <v>0.2490573244744695</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>1811.792242610537</v>
+        <v>242.50408260401</v>
       </c>
       <c r="R7">
-        <v>1811.792242610537</v>
+        <v>2182.53674343609</v>
       </c>
       <c r="S7">
-        <v>0.03891953053086934</v>
+        <v>0.004845507350575661</v>
       </c>
       <c r="T7">
-        <v>0.03891953053086934</v>
+        <v>0.004845507350575662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.795308583146</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H8">
-        <v>152.795308583146</v>
+        <v>462.167831</v>
       </c>
       <c r="I8">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J8">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>165.0682623691269</v>
+        <v>9629.10453797632</v>
       </c>
       <c r="R8">
-        <v>165.0682623691269</v>
+        <v>86661.94084178688</v>
       </c>
       <c r="S8">
-        <v>0.003545869733770447</v>
+        <v>0.1924004590653196</v>
       </c>
       <c r="T8">
-        <v>0.003545869733770447</v>
+        <v>0.1924004590653196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.795308583146</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H9">
-        <v>152.795308583146</v>
+        <v>462.167831</v>
       </c>
       <c r="I9">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J9">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>9549.439778318414</v>
+        <v>28.17729426446434</v>
       </c>
       <c r="R9">
-        <v>9549.439778318414</v>
+        <v>253.595648380179</v>
       </c>
       <c r="S9">
-        <v>0.2051337367851032</v>
+        <v>0.000563014383146462</v>
       </c>
       <c r="T9">
-        <v>0.2051337367851032</v>
+        <v>0.0005630143831464621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>152.795308583146</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H10">
-        <v>152.795308583146</v>
+        <v>462.167831</v>
       </c>
       <c r="I10">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J10">
-        <v>0.2473290667833177</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>11.7753606251016</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N10">
-        <v>11.7753606251016</v>
+        <v>0.281423</v>
       </c>
       <c r="O10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P10">
-        <v>0.1562673597855136</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q10">
-        <v>1799.219860390226</v>
+        <v>14.45162861150144</v>
       </c>
       <c r="R10">
-        <v>1799.219860390226</v>
+        <v>130.064657503513</v>
       </c>
       <c r="S10">
-        <v>0.03864946026444403</v>
+        <v>0.0002887599743183122</v>
       </c>
       <c r="T10">
-        <v>0.03864946026444403</v>
+        <v>0.0002887599743183122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>129.753340428806</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H11">
-        <v>129.753340428806</v>
+        <v>462.167831</v>
       </c>
       <c r="I11">
-        <v>0.2100311383762903</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="J11">
-        <v>0.2100311383762903</v>
+        <v>0.2393005425173851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.08032284433198</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N11">
-        <v>1.08032284433198</v>
+        <v>40.155898</v>
       </c>
       <c r="O11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P11">
-        <v>0.01433664785092544</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q11">
-        <v>140.1754977936234</v>
+        <v>2062.084920057471</v>
       </c>
       <c r="R11">
-        <v>140.1754977936234</v>
+        <v>18558.76428051724</v>
       </c>
       <c r="S11">
-        <v>0.003011142468629867</v>
+        <v>0.04120280174402505</v>
       </c>
       <c r="T11">
-        <v>0.003011142468629867</v>
+        <v>0.04120280174402506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.753340428806</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H12">
-        <v>129.753340428806</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I12">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J12">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4982525109528</v>
+        <v>1.57413</v>
       </c>
       <c r="N12">
-        <v>62.4982525109528</v>
+        <v>4.72239</v>
       </c>
       <c r="O12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P12">
-        <v>0.8293959923635609</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q12">
-        <v>8109.357034259139</v>
+        <v>242.64738982508</v>
       </c>
       <c r="R12">
-        <v>8109.357034259139</v>
+        <v>2183.82650842572</v>
       </c>
       <c r="S12">
-        <v>0.1741989844408517</v>
+        <v>0.004848370791824273</v>
       </c>
       <c r="T12">
-        <v>0.1741989844408517</v>
+        <v>0.004848370791824273</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.753340428806</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H13">
-        <v>129.753340428806</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I13">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J13">
-        <v>0.2100311383762903</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.7753606251016</v>
+        <v>62.503947</v>
       </c>
       <c r="N13">
-        <v>11.7753606251016</v>
+        <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.1562673597855136</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P13">
-        <v>0.1562673597855136</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q13">
-        <v>1527.892375860766</v>
+        <v>9634.794834807251</v>
       </c>
       <c r="R13">
-        <v>1527.892375860766</v>
+        <v>86713.15351326526</v>
       </c>
       <c r="S13">
-        <v>0.03282101146680876</v>
+        <v>0.1925141576671129</v>
       </c>
       <c r="T13">
-        <v>0.03282101146680876</v>
+        <v>0.1925141576671129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>99.5654776790178</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H14">
-        <v>99.5654776790178</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I14">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J14">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.08032284433198</v>
+        <v>0.182903</v>
       </c>
       <c r="N14">
-        <v>1.08032284433198</v>
+        <v>0.548709</v>
       </c>
       <c r="O14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P14">
-        <v>0.01433664785092544</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q14">
-        <v>107.5628600434688</v>
+        <v>28.19394557068133</v>
       </c>
       <c r="R14">
-        <v>107.5628600434688</v>
+        <v>253.745510136132</v>
       </c>
       <c r="S14">
-        <v>0.002310582812418684</v>
+        <v>0.0005633470951808523</v>
       </c>
       <c r="T14">
-        <v>0.002310582812418684</v>
+        <v>0.0005633470951808523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>99.5654776790178</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H15">
-        <v>99.5654776790178</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I15">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J15">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>62.4982525109528</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N15">
-        <v>62.4982525109528</v>
+        <v>0.281423</v>
       </c>
       <c r="O15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P15">
-        <v>0.8293959923635609</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q15">
-        <v>6222.66836535689</v>
+        <v>14.46016876766711</v>
       </c>
       <c r="R15">
-        <v>6222.66836535689</v>
+        <v>130.141518909004</v>
       </c>
       <c r="S15">
-        <v>0.1336705863581965</v>
+        <v>0.0002889306163505264</v>
       </c>
       <c r="T15">
-        <v>0.1336705863581965</v>
+        <v>0.0002889306163505264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.5654776790178</v>
+        <v>154.1469826666666</v>
       </c>
       <c r="H16">
-        <v>99.5654776790178</v>
+        <v>462.4409479999999</v>
       </c>
       <c r="I16">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="J16">
-        <v>0.1611661830885756</v>
+        <v>0.2394419566139251</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7753606251016</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N16">
-        <v>11.7753606251016</v>
+        <v>40.155898</v>
       </c>
       <c r="O16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P16">
-        <v>0.1562673597855136</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q16">
-        <v>1172.419405480938</v>
+        <v>2063.303504323478</v>
       </c>
       <c r="R16">
-        <v>1172.419405480938</v>
+        <v>18569.7315389113</v>
       </c>
       <c r="S16">
-        <v>0.02518501391796041</v>
+        <v>0.04122715044345654</v>
       </c>
       <c r="T16">
-        <v>0.02518501391796041</v>
+        <v>0.04122715044345654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H17">
+        <v>398.587204</v>
+      </c>
+      <c r="I17">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J17">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>209.14269181084</v>
+      </c>
+      <c r="R17">
+        <v>1882.28422629756</v>
+      </c>
+      <c r="S17">
+        <v>0.004178908823334787</v>
+      </c>
+      <c r="T17">
+        <v>0.004178908823334788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H18">
+        <v>398.587204</v>
+      </c>
+      <c r="I18">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J18">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>8304.424491231397</v>
+      </c>
+      <c r="R18">
+        <v>74739.82042108258</v>
+      </c>
+      <c r="S18">
+        <v>0.1659318452805993</v>
+      </c>
+      <c r="T18">
+        <v>0.1659318452805994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H19">
+        <v>398.587204</v>
+      </c>
+      <c r="I19">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J19">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>24.30093179107067</v>
+      </c>
+      <c r="R19">
+        <v>218.708386119636</v>
+      </c>
+      <c r="S19">
+        <v>0.0004855602526566437</v>
+      </c>
+      <c r="T19">
+        <v>0.0004855602526566438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H20">
+        <v>398.587204</v>
+      </c>
+      <c r="I20">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J20">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>12.46351185681022</v>
+      </c>
+      <c r="R20">
+        <v>112.171606711292</v>
+      </c>
+      <c r="S20">
+        <v>0.0002490351406362765</v>
+      </c>
+      <c r="T20">
+        <v>0.0002490351406362765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>132.8624013333333</v>
+      </c>
+      <c r="H21">
+        <v>398.587204</v>
+      </c>
+      <c r="I21">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="J21">
+        <v>0.2063798641097711</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>1778.403011992133</v>
+      </c>
+      <c r="R21">
+        <v>16005.62710792919</v>
+      </c>
+      <c r="S21">
+        <v>0.03553451461254401</v>
+      </c>
+      <c r="T21">
+        <v>0.03553451461254402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H22">
+        <v>358.687888</v>
+      </c>
+      <c r="I22">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J22">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>188.20712171248</v>
+      </c>
+      <c r="R22">
+        <v>1693.86409541232</v>
+      </c>
+      <c r="S22">
+        <v>0.003760592324450335</v>
+      </c>
+      <c r="T22">
+        <v>0.003760592324450336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H23">
+        <v>358.687888</v>
+      </c>
+      <c r="I23">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J23">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>7473.136247031313</v>
+      </c>
+      <c r="R23">
+        <v>67258.22622328182</v>
+      </c>
+      <c r="S23">
+        <v>0.1493217608050482</v>
+      </c>
+      <c r="T23">
+        <v>0.1493217608050482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H24">
+        <v>358.687888</v>
+      </c>
+      <c r="I24">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J24">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>21.86836359295467</v>
+      </c>
+      <c r="R24">
+        <v>196.815272336592</v>
+      </c>
+      <c r="S24">
+        <v>0.0004369547736965433</v>
+      </c>
+      <c r="T24">
+        <v>0.0004369547736965433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H25">
+        <v>358.687888</v>
+      </c>
+      <c r="I25">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J25">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>11.21589127829156</v>
+      </c>
+      <c r="R25">
+        <v>100.943021504624</v>
+      </c>
+      <c r="S25">
+        <v>0.0002241062626601756</v>
+      </c>
+      <c r="T25">
+        <v>0.0002241062626601756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>119.5626293333333</v>
+      </c>
+      <c r="H26">
+        <v>358.687888</v>
+      </c>
+      <c r="I26">
+        <v>0.1857208581720069</v>
+      </c>
+      <c r="J26">
+        <v>0.185720858172007</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>1600.381582707047</v>
+      </c>
+      <c r="R26">
+        <v>14403.43424436343</v>
+      </c>
+      <c r="S26">
+        <v>0.03197744400615166</v>
+      </c>
+      <c r="T26">
+        <v>0.03197744400615167</v>
       </c>
     </row>
   </sheetData>
